--- a/data/light-reading-cloud/reading-cloud-common_structure.xlsx
+++ b/data/light-reading-cloud/reading-cloud-common_structure.xlsx
@@ -1161,132 +1161,132 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>lockStatus</t>
+  </si>
+  <si>
     <t>sortNumber</t>
   </si>
   <si>
     <t>serialVersionUID</t>
   </si>
   <si>
-    <t>content</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>createTime</t>
   </si>
   <si>
     <t>bookId</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>createTime</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>updateTime</t>
   </si>
   <si>
-    <t>lockStatus</t>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>moreUrl</t>
+  </si>
+  <si>
+    <t>creater</t>
+  </si>
+  <si>
+    <t>showNumber</t>
+  </si>
+  <si>
+    <t>bookIds</t>
   </si>
   <si>
     <t>moreType</t>
   </si>
   <si>
+    <t>showLikeCount</t>
+  </si>
+  <si>
     <t>updater</t>
   </si>
   <si>
-    <t>startDate</t>
-  </si>
-  <si>
-    <t>moreUrl</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>showLikeCount</t>
-  </si>
-  <si>
-    <t>showNumber</t>
-  </si>
-  <si>
-    <t>bookIds</t>
-  </si>
-  <si>
-    <t>endDate</t>
-  </si>
-  <si>
-    <t>creater</t>
+    <t>authorId</t>
+  </si>
+  <si>
+    <t>imgUrl</t>
+  </si>
+  <si>
+    <t>authorName</t>
+  </si>
+  <si>
+    <t>bookScore</t>
+  </si>
+  <si>
+    <t>bookName</t>
   </si>
   <si>
     <t>introduction</t>
   </si>
   <si>
-    <t>bookScore</t>
-  </si>
-  <si>
-    <t>bookName</t>
-  </si>
-  <si>
-    <t>imgUrl</t>
-  </si>
-  <si>
-    <t>authorName</t>
-  </si>
-  <si>
-    <t>authorId</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>redisTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.data.redis.core.RedisTemplate</t>
+  </si>
+  <si>
+    <t>setOperations</t>
+  </si>
+  <si>
+    <t>org.springframework.data.redis.core.SetOperations</t>
+  </si>
+  <si>
     <t>hashOperations</t>
   </si>
   <si>
     <t>org.springframework.data.redis.core.HashOperations</t>
   </si>
   <si>
-    <t>setOperations</t>
-  </si>
-  <si>
-    <t>org.springframework.data.redis.core.SetOperations</t>
-  </si>
-  <si>
     <t>zSetOperations</t>
   </si>
   <si>
     <t>org.springframework.data.redis.core.ZSetOperations</t>
   </si>
   <si>
+    <t>listOperations</t>
+  </si>
+  <si>
+    <t>org.springframework.data.redis.core.ListOperations</t>
+  </si>
+  <si>
+    <t>DEFAULT_CACHE_TIME</t>
+  </si>
+  <si>
+    <t>valueOperations</t>
+  </si>
+  <si>
+    <t>org.springframework.data.redis.core.ValueOperations</t>
+  </si>
+  <si>
     <t>stringRedisTemplate</t>
   </si>
   <si>
     <t>org.springframework.data.redis.core.StringRedisTemplate</t>
   </si>
   <si>
-    <t>valueOperations</t>
-  </si>
-  <si>
-    <t>org.springframework.data.redis.core.ValueOperations</t>
-  </si>
-  <si>
-    <t>DEFAULT_CACHE_TIME</t>
-  </si>
-  <si>
-    <t>redisTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.data.redis.core.RedisTemplate</t>
-  </si>
-  <si>
-    <t>listOperations</t>
-  </si>
-  <si>
-    <t>org.springframework.data.redis.core.ListOperations</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -1302,108 +1302,108 @@
     <t>lastReadTime</t>
   </si>
   <si>
+    <t>pageType</t>
+  </si>
+  <si>
+    <t>itemId</t>
+  </si>
+  <si>
     <t>itemType</t>
   </si>
   <si>
-    <t>itemId</t>
-  </si>
-  <si>
-    <t>pageType</t>
-  </si>
-  <si>
     <t>headImgUrl</t>
   </si>
   <si>
+    <t>keyWord</t>
+  </si>
+  <si>
+    <t>dicChannel</t>
+  </si>
+  <si>
+    <t>dicCategory</t>
+  </si>
+  <si>
     <t>onlineStatus</t>
   </si>
   <si>
-    <t>dicChannel</t>
-  </si>
-  <si>
-    <t>dicCategory</t>
-  </si>
-  <si>
     <t>isbn</t>
   </si>
   <si>
-    <t>keyWord</t>
+    <t>dicSerialStatus</t>
   </si>
   <si>
     <t>wordCount</t>
   </si>
   <si>
-    <t>dicSerialStatus</t>
+    <t>table</t>
+  </si>
+  <si>
+    <t>modCount</t>
+  </si>
+  <si>
+    <t>MAXIMUM_CAPACITY</t>
+  </si>
+  <si>
+    <t>TREEIFY_THRESHOLD</t>
+  </si>
+  <si>
+    <t>keySet</t>
+  </si>
+  <si>
+    <t>DEFAULT_LOAD_FACTOR</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>entrySet</t>
+  </si>
+  <si>
+    <t>DEFAULT_INITIAL_CAPACITY</t>
   </si>
   <si>
     <t>values</t>
   </si>
   <si>
-    <t>MAXIMUM_CAPACITY</t>
-  </si>
-  <si>
     <t>UNTREEIFY_THRESHOLD</t>
   </si>
   <si>
-    <t>entrySet</t>
-  </si>
-  <si>
-    <t>threshold</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
-    <t>TREEIFY_THRESHOLD</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
     <t>loadFactor</t>
   </si>
   <si>
-    <t>DEFAULT_INITIAL_CAPACITY</t>
-  </si>
-  <si>
-    <t>DEFAULT_LOAD_FACTOR</t>
-  </si>
-  <si>
     <t>MIN_TREEIFY_CAPACITY</t>
   </si>
   <si>
-    <t>keySet</t>
-  </si>
-  <si>
-    <t>modCount</t>
+    <t>SERIAL</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
   </si>
   <si>
     <t>SUSPEND</t>
   </si>
   <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>SERIAL</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>userPwd</t>
   </si>
   <si>
+    <t>loginName</t>
+  </si>
+  <si>
     <t>uuid</t>
   </si>
   <si>
     <t>nickName</t>
   </si>
   <si>
-    <t>loginName</t>
-  </si>
-  <si>
     <t>phoneNumber</t>
   </si>
   <si>
@@ -1413,156 +1413,159 @@
     <t>java.lang.String[]</t>
   </si>
   <si>
+    <t>CATEGORY_2</t>
+  </si>
+  <si>
+    <t>CATEGORY_4</t>
+  </si>
+  <si>
+    <t>CATEGORY_8</t>
+  </si>
+  <si>
+    <t>CATEGORY_6</t>
+  </si>
+  <si>
+    <t>CATEGORY_1</t>
+  </si>
+  <si>
+    <t>CATEGORY_3</t>
+  </si>
+  <si>
     <t>CATEGORY_7</t>
   </si>
   <si>
-    <t>CATEGORY_8</t>
-  </si>
-  <si>
-    <t>CATEGORY_1</t>
-  </si>
-  <si>
-    <t>CATEGORY_3</t>
-  </si>
-  <si>
-    <t>CATEGORY_2</t>
-  </si>
-  <si>
-    <t>CATEGORY_4</t>
-  </si>
-  <si>
-    <t>CATEGORY_6</t>
-  </si>
-  <si>
     <t>CATEGORY_5</t>
   </si>
   <si>
     <t>categorys</t>
   </si>
   <si>
+    <t>UNPROCESABLE_ENTITY</t>
+  </si>
+  <si>
+    <t>INTERNAL_SERVER_ERROR</t>
+  </si>
+  <si>
+    <t>VERIFICATION_FAILED</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>UNAUTHORIZED</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>AUTH_EXPIRED</t>
+  </si>
+  <si>
+    <t>NOT_FOUND</t>
+  </si>
+  <si>
+    <t>TOKEN_ERR</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>MODEL_NOT_EXIST</t>
+  </si>
+  <si>
+    <t>DELETE_DEFAULT_PHOTO_ERR</t>
+  </si>
+  <si>
+    <t>USERNAME_OR_PASSWORD_ERR</t>
+  </si>
+  <si>
     <t>FORBIDDEN</t>
   </si>
   <si>
-    <t>TOKEN_ERR</t>
-  </si>
-  <si>
-    <t>MODEL_NOT_EXIST</t>
-  </si>
-  <si>
-    <t>AUTH_EXPIRED</t>
+    <t>INVALID_REQUEST</t>
+  </si>
+  <si>
+    <t>UN_KNOW_ERROR</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
-    <t>DELETE_DEFAULT_PHOTO_ERR</t>
-  </si>
-  <si>
-    <t>UNPROCESABLE_ENTITY</t>
-  </si>
-  <si>
-    <t>USERNAME_OR_PASSWORD_ERR</t>
-  </si>
-  <si>
-    <t>UN_KNOW_ERROR</t>
-  </si>
-  <si>
-    <t>UNAUTHORIZED</t>
-  </si>
-  <si>
     <t>NOT_ACCEPTABLE</t>
   </si>
   <si>
-    <t>VERIFICATION_FAILED</t>
-  </si>
-  <si>
-    <t>INTERNAL_SERVER_ERROR</t>
-  </si>
-  <si>
-    <t>INVALID_REQUEST</t>
-  </si>
-  <si>
-    <t>NOT_FOUND</t>
-  </si>
-  <si>
     <t>GONE</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>message</t>
+    <t>MINUTE_TEN</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>HOUR</t>
+  </si>
+  <si>
+    <t>WEEK</t>
+  </si>
+  <si>
+    <t>MINUTE_THR</t>
+  </si>
+  <si>
+    <t>DAY_TWO</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>MINUTE</t>
+  </si>
+  <si>
+    <t>MINUTE_TWO</t>
   </si>
   <si>
     <t>HOUR_TWO</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>DAY_TWO</t>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>HOUR_FOUR</t>
   </si>
   <si>
     <t>YEAR</t>
   </si>
   <si>
-    <t>MONTH</t>
-  </si>
-  <si>
-    <t>MINUTE</t>
-  </si>
-  <si>
-    <t>HOUR_FOUR</t>
-  </si>
-  <si>
-    <t>MINUTE_TEN</t>
-  </si>
-  <si>
-    <t>MINUTE_THR</t>
+    <t>MINUTE_FIV</t>
   </si>
   <si>
     <t>MINUTE_THIRTY</t>
   </si>
   <si>
-    <t>HOUR</t>
-  </si>
-  <si>
-    <t>MINUTE_TWO</t>
-  </si>
-  <si>
-    <t>WEEK</t>
-  </si>
-  <si>
-    <t>DAY</t>
-  </si>
-  <si>
     <t>MINUTE_TWENTY</t>
   </si>
   <si>
-    <t>MINUTE_FIV</t>
-  </si>
-  <si>
     <t>ACCOUNT_CENTER_BOOK_LIKES_COUNT</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>msg</t>
   </si>
   <si>
-    <t>data</t>
+    <t>EXPIRE_DAY</t>
   </si>
   <si>
     <t>SECRET_KEY</t>
   </si>
   <si>
-    <t>EXPIRE_DAY</t>
-  </si>
-  <si>
     <t>booklistId</t>
   </si>
   <si>
+    <t>MORE</t>
+  </si>
+  <si>
     <t>LOADING</t>
   </si>
   <si>
@@ -1570,9 +1573,6 @@
   </si>
   <si>
     <t>EXCHANGE</t>
-  </si>
-  <si>
-    <t>MORE</t>
   </si>
   <si>
     <t>dicTypeName</t>
@@ -18146,7 +18146,7 @@
         <v>91</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -18160,7 +18160,7 @@
         <v>91</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -18174,7 +18174,7 @@
         <v>91</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -18202,7 +18202,7 @@
         <v>91</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -18213,10 +18213,10 @@
         <v>384</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -18227,10 +18227,10 @@
         <v>385</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -18244,7 +18244,7 @@
         <v>91</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -18258,7 +18258,7 @@
         <v>91</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -18266,13 +18266,13 @@
         <v>45</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -18280,13 +18280,13 @@
         <v>45</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -18294,13 +18294,13 @@
         <v>45</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -18308,13 +18308,13 @@
         <v>45</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -18322,13 +18322,13 @@
         <v>45</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -18336,13 +18336,13 @@
         <v>45</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -18350,7 +18350,7 @@
         <v>45</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>91</v>
@@ -18364,7 +18364,7 @@
         <v>45</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>91</v>
@@ -18378,7 +18378,7 @@
         <v>45</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>91</v>
@@ -18392,7 +18392,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>91</v>
@@ -18406,13 +18406,13 @@
         <v>45</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -18420,7 +18420,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>91</v>
@@ -18440,7 +18440,7 @@
         <v>91</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -18454,7 +18454,7 @@
         <v>91</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -18482,7 +18482,7 @@
         <v>91</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -18496,7 +18496,7 @@
         <v>91</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -18518,7 +18518,7 @@
         <v>67</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>91</v>
@@ -18532,13 +18532,13 @@
         <v>67</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -18546,13 +18546,13 @@
         <v>67</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
@@ -18560,13 +18560,13 @@
         <v>67</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -18574,7 +18574,7 @@
         <v>67</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>91</v>
@@ -18714,13 +18714,13 @@
         <v>124</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
@@ -18728,13 +18728,13 @@
         <v>124</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -18742,13 +18742,13 @@
         <v>124</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -18756,13 +18756,13 @@
         <v>124</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -18770,13 +18770,13 @@
         <v>124</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48">
@@ -18784,13 +18784,13 @@
         <v>124</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -18798,13 +18798,13 @@
         <v>124</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
@@ -18812,13 +18812,13 @@
         <v>124</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -18826,7 +18826,7 @@
         <v>124</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>91</v>
@@ -18840,13 +18840,13 @@
         <v>124</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -18854,7 +18854,7 @@
         <v>124</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>91</v>
@@ -18868,13 +18868,13 @@
         <v>138</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -18882,13 +18882,13 @@
         <v>138</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56">
@@ -18896,13 +18896,13 @@
         <v>138</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -18910,7 +18910,7 @@
         <v>138</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>91</v>
@@ -18952,7 +18952,7 @@
         <v>138</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>91</v>
@@ -18966,13 +18966,13 @@
         <v>146</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
@@ -18980,7 +18980,7 @@
         <v>146</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>91</v>
@@ -18994,13 +18994,13 @@
         <v>146</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -19008,13 +19008,13 @@
         <v>146</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -19022,13 +19022,13 @@
         <v>146</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
@@ -19036,13 +19036,13 @@
         <v>146</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -19050,13 +19050,13 @@
         <v>146</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68">
@@ -19064,7 +19064,7 @@
         <v>146</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>91</v>
@@ -19078,7 +19078,7 @@
         <v>146</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>91</v>
@@ -19092,13 +19092,13 @@
         <v>146</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -19106,13 +19106,13 @@
         <v>146</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
@@ -19120,13 +19120,13 @@
         <v>146</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -19134,7 +19134,7 @@
         <v>159</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>91</v>
@@ -19148,7 +19148,7 @@
         <v>159</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>9</v>
@@ -19162,7 +19162,7 @@
         <v>159</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>9</v>
@@ -19176,13 +19176,13 @@
         <v>159</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -19190,13 +19190,13 @@
         <v>159</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -19204,10 +19204,10 @@
         <v>159</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D78" t="s" s="0">
         <v>22</v>
@@ -19218,13 +19218,13 @@
         <v>159</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -19232,13 +19232,13 @@
         <v>159</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
@@ -19246,7 +19246,7 @@
         <v>159</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>91</v>
@@ -19260,13 +19260,13 @@
         <v>163</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
@@ -19274,13 +19274,13 @@
         <v>163</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -19288,7 +19288,7 @@
         <v>163</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>91</v>
@@ -19302,13 +19302,13 @@
         <v>163</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
@@ -19316,13 +19316,13 @@
         <v>163</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
@@ -19330,13 +19330,13 @@
         <v>163</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
@@ -19344,13 +19344,13 @@
         <v>163</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89">
@@ -19358,13 +19358,13 @@
         <v>163</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
@@ -19372,13 +19372,13 @@
         <v>163</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91">
@@ -19386,7 +19386,7 @@
         <v>163</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>91</v>
@@ -19400,13 +19400,13 @@
         <v>163</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -19428,13 +19428,13 @@
         <v>163</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
@@ -19442,13 +19442,13 @@
         <v>163</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -19456,7 +19456,7 @@
         <v>163</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>91</v>
@@ -19470,13 +19470,13 @@
         <v>163</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
@@ -19484,13 +19484,13 @@
         <v>163</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
@@ -19498,13 +19498,13 @@
         <v>163</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
@@ -19512,13 +19512,13 @@
         <v>163</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101">
@@ -19526,13 +19526,13 @@
         <v>163</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
@@ -19546,7 +19546,7 @@
         <v>181</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103">
@@ -19588,7 +19588,7 @@
         <v>181</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
@@ -19602,7 +19602,7 @@
         <v>181</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107">
@@ -19610,13 +19610,13 @@
         <v>179</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>16</v>
+        <v>405</v>
       </c>
     </row>
     <row r="108">
@@ -19624,13 +19624,13 @@
         <v>179</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>181</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>16</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109">
@@ -19638,13 +19638,13 @@
         <v>179</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>181</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
@@ -19652,13 +19652,13 @@
         <v>179</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>181</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>243</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111">
@@ -19666,13 +19666,13 @@
         <v>179</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>405</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
@@ -19686,7 +19686,7 @@
         <v>181</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>16</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113">
@@ -19700,7 +19700,7 @@
         <v>181</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>243</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
@@ -19728,7 +19728,7 @@
         <v>181</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>87</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116">
@@ -19764,13 +19764,13 @@
         <v>256</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>22</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119">
@@ -19778,13 +19778,13 @@
         <v>256</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120">
@@ -19792,13 +19792,13 @@
         <v>256</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121">
@@ -19806,13 +19806,13 @@
         <v>256</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>256</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122">
@@ -19820,13 +19820,13 @@
         <v>256</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>455</v>
+        <v>380</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
@@ -19834,13 +19834,13 @@
         <v>273</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>456</v>
+        <v>384</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
@@ -19848,13 +19848,13 @@
         <v>273</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125">
@@ -19862,7 +19862,7 @@
         <v>273</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>91</v>
@@ -19876,13 +19876,13 @@
         <v>273</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>384</v>
+        <v>457</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127">
@@ -19890,13 +19890,13 @@
         <v>273</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128">
@@ -19904,13 +19904,13 @@
         <v>273</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>459</v>
+        <v>387</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129">
@@ -19918,7 +19918,7 @@
         <v>273</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>91</v>
@@ -19932,13 +19932,13 @@
         <v>273</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131">
@@ -19946,13 +19946,13 @@
         <v>273</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>380</v>
+        <v>459</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132">
@@ -19960,13 +19960,13 @@
         <v>273</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>385</v>
+        <v>460</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133">
@@ -20002,13 +20002,13 @@
         <v>290</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>383</v>
+        <v>464</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>22</v>
+        <v>290</v>
       </c>
     </row>
     <row r="136">
@@ -20016,7 +20016,7 @@
         <v>290</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>6</v>
@@ -20030,7 +20030,7 @@
         <v>290</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>6</v>
@@ -20044,13 +20044,13 @@
         <v>290</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>290</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139">
@@ -20100,13 +20100,13 @@
         <v>290</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143">
@@ -20114,13 +20114,13 @@
         <v>290</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>453</v>
+        <v>380</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>291</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144">
@@ -20128,13 +20128,13 @@
         <v>290</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>12</v>
+        <v>290</v>
       </c>
     </row>
     <row r="145">
@@ -20156,7 +20156,7 @@
         <v>334</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>91</v>
@@ -20170,13 +20170,13 @@
         <v>334</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148">
@@ -20184,13 +20184,13 @@
         <v>334</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149">
@@ -20198,13 +20198,13 @@
         <v>334</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150">
@@ -20212,13 +20212,13 @@
         <v>334</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151">
@@ -20271,10 +20271,10 @@
         <v>475</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>336</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155">
@@ -20299,10 +20299,10 @@
         <v>477</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>336</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157">
@@ -20338,13 +20338,13 @@
         <v>336</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="160">
@@ -20352,7 +20352,7 @@
         <v>336</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>6</v>
@@ -20366,7 +20366,7 @@
         <v>336</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>6</v>
@@ -20380,7 +20380,7 @@
         <v>336</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>6</v>
@@ -20394,7 +20394,7 @@
         <v>336</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>6</v>
@@ -20408,13 +20408,13 @@
         <v>336</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="165">
@@ -20481,10 +20481,10 @@
         <v>489</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>16</v>
+        <v>336</v>
       </c>
     </row>
     <row r="170">
@@ -20495,10 +20495,10 @@
         <v>490</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>22</v>
+        <v>336</v>
       </c>
     </row>
     <row r="171">
@@ -20716,13 +20716,13 @@
         <v>343</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D186" t="s" s="0">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="187">
@@ -20730,13 +20730,13 @@
         <v>343</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188">
@@ -20744,7 +20744,7 @@
         <v>343</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>91</v>
@@ -20764,7 +20764,7 @@
         <v>91</v>
       </c>
       <c r="D189" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190">
@@ -20772,7 +20772,7 @@
         <v>343</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>91</v>
@@ -20786,13 +20786,13 @@
         <v>343</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D191" t="s" s="0">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192">
@@ -20800,7 +20800,7 @@
         <v>343</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>91</v>
@@ -20828,7 +20828,7 @@
         <v>295</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>91</v>
@@ -20848,7 +20848,7 @@
         <v>91</v>
       </c>
       <c r="D195" t="s" s="0">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="196">
@@ -20856,13 +20856,13 @@
         <v>295</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>380</v>
+        <v>509</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D196" t="s" s="0">
-        <v>492</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197">
@@ -20870,13 +20870,13 @@
         <v>295</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>509</v>
+        <v>383</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D197" t="s" s="0">
-        <v>43</v>
+        <v>492</v>
       </c>
     </row>
     <row r="198">
@@ -20890,7 +20890,7 @@
         <v>6</v>
       </c>
       <c r="D198" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199">
@@ -20904,7 +20904,7 @@
         <v>6</v>
       </c>
       <c r="D199" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200">
@@ -20912,13 +20912,13 @@
         <v>359</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>397</v>
+        <v>512</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D200" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201">
@@ -20926,7 +20926,7 @@
         <v>359</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>91</v>
@@ -20940,7 +20940,7 @@
         <v>359</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>91</v>
@@ -20954,13 +20954,13 @@
         <v>359</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D203" t="s" s="0">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="204">
@@ -20968,13 +20968,13 @@
         <v>359</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D204" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205">
@@ -20982,13 +20982,13 @@
         <v>359</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D205" t="s" s="0">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206">
@@ -20996,13 +20996,13 @@
         <v>359</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207">
@@ -21010,13 +21010,13 @@
         <v>359</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208">
@@ -21024,13 +21024,13 @@
         <v>359</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>512</v>
+        <v>387</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209">
@@ -21038,13 +21038,13 @@
         <v>363</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="210">
@@ -21052,13 +21052,13 @@
         <v>363</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>383</v>
+        <v>514</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>22</v>
+        <v>363</v>
       </c>
     </row>
     <row r="211">
@@ -21066,13 +21066,13 @@
         <v>363</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>455</v>
+        <v>515</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>16</v>
+        <v>363</v>
       </c>
     </row>
     <row r="212">
@@ -21080,13 +21080,13 @@
         <v>363</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>363</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213">
@@ -21094,7 +21094,7 @@
         <v>363</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>6</v>
@@ -21108,13 +21108,13 @@
         <v>363</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>515</v>
+        <v>380</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D214" t="s" s="0">
-        <v>363</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215">
@@ -21122,13 +21122,13 @@
         <v>363</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>516</v>
+        <v>453</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D215" t="s" s="0">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="216">
@@ -21136,7 +21136,7 @@
         <v>366</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>489</v>
+        <v>382</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>91</v>
@@ -21150,13 +21150,13 @@
         <v>366</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>380</v>
+        <v>517</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D217" t="s" s="0">
-        <v>492</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218">
@@ -21164,13 +21164,13 @@
         <v>366</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D218" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219">
@@ -21178,13 +21178,13 @@
         <v>366</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>517</v>
+        <v>384</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D219" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220">
@@ -21192,7 +21192,7 @@
         <v>366</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>383</v>
+        <v>518</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>91</v>
@@ -21206,13 +21206,13 @@
         <v>366</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D221" t="s" s="0">
-        <v>12</v>
+        <v>492</v>
       </c>
     </row>
     <row r="222">
@@ -21220,13 +21220,13 @@
         <v>366</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>518</v>
+        <v>477</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D222" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -28904,7 +28904,7 @@
         <v>336</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>525</v>
@@ -28921,7 +28921,7 @@
         <v>336</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>524</v>
@@ -28938,7 +28938,7 @@
         <v>336</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>525</v>
@@ -28955,7 +28955,7 @@
         <v>336</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>525</v>
@@ -28972,7 +28972,7 @@
         <v>336</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>525</v>
@@ -28989,7 +28989,7 @@
         <v>336</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>525</v>
@@ -29006,7 +29006,7 @@
         <v>336</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>525</v>
@@ -29023,7 +29023,7 @@
         <v>336</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>525</v>
@@ -29040,7 +29040,7 @@
         <v>336</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>525</v>
@@ -29057,7 +29057,7 @@
         <v>336</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>525</v>
@@ -29074,7 +29074,7 @@
         <v>336</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>525</v>
@@ -29091,7 +29091,7 @@
         <v>336</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>525</v>
@@ -29108,7 +29108,7 @@
         <v>336</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>525</v>
@@ -29125,7 +29125,7 @@
         <v>336</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>525</v>
@@ -29142,7 +29142,7 @@
         <v>336</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>525</v>
@@ -29159,7 +29159,7 @@
         <v>336</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>525</v>
@@ -29176,7 +29176,7 @@
         <v>336</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="E18" t="s" s="0">
         <v>524</v>
@@ -29193,7 +29193,7 @@
         <v>336</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>525</v>
@@ -29210,7 +29210,7 @@
         <v>336</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>525</v>
@@ -29227,7 +29227,7 @@
         <v>336</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>525</v>
@@ -29244,7 +29244,7 @@
         <v>336</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>525</v>
@@ -29261,7 +29261,7 @@
         <v>336</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E23" t="s" s="0">
         <v>525</v>
@@ -29278,7 +29278,7 @@
         <v>336</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>525</v>
@@ -29295,7 +29295,7 @@
         <v>336</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E25" t="s" s="0">
         <v>525</v>
@@ -29312,7 +29312,7 @@
         <v>336</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E26" t="s" s="0">
         <v>525</v>
@@ -29329,7 +29329,7 @@
         <v>336</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E27" t="s" s="0">
         <v>525</v>
@@ -29346,7 +29346,7 @@
         <v>336</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E28" t="s" s="0">
         <v>525</v>
